--- a/4_example/case_study_1.0/4_additional_plots/nc50.xlsx
+++ b/4_example/case_study_1.0/4_additional_plots/nc50.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tkim333\Documents\GitHub\toPSAil\4_example\plots\plots_case_study_1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tkim333\Documents\GitHub\toPSAil\4_example\case_study_1.0\4_additional_plots\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EE21EB9-D0AA-4666-8F27-B389FC40794B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8242FB1-ACBD-4795-8D76-86CCA7C88DB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{49F71D96-3F81-0D40-866E-1B6184E8AFED}"/>
   </bookViews>
@@ -398,7 +398,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9046078-3D4C-E14A-AEFF-0D6AD9817354}">
   <dimension ref="A1:C51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:C51"/>
     </sheetView>
   </sheetViews>
@@ -420,10 +420,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="2">
-        <v>2.5398613620470099E-5</v>
+        <v>2.53884370049158E-5</v>
       </c>
       <c r="C2" s="2">
-        <v>9.1430335875712697E-5</v>
+        <v>9.1393701932141003E-5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -431,10 +431,10 @@
         <v>1.5551020408163301</v>
       </c>
       <c r="B3" s="2">
-        <v>2.5398613620470099E-5</v>
+        <v>2.53884370049158E-5</v>
       </c>
       <c r="C3" s="2">
-        <v>9.1430335875712697E-5</v>
+        <v>9.1393701932141003E-5</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -442,10 +442,10 @@
         <v>3.1102040816326499</v>
       </c>
       <c r="B4" s="2">
-        <v>2.5398613620470099E-5</v>
+        <v>2.53884370049158E-5</v>
       </c>
       <c r="C4" s="2">
-        <v>9.1430335875712697E-5</v>
+        <v>9.1393701932141003E-5</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -453,10 +453,10 @@
         <v>4.66530612244898</v>
       </c>
       <c r="B5" s="2">
-        <v>2.5398613620470201E-5</v>
+        <v>2.53884370049158E-5</v>
       </c>
       <c r="C5" s="2">
-        <v>9.1430335875712697E-5</v>
+        <v>9.1393701932141003E-5</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -464,10 +464,10 @@
         <v>6.2204081632653097</v>
       </c>
       <c r="B6" s="2">
-        <v>2.5398613620470099E-5</v>
+        <v>2.53884370049158E-5</v>
       </c>
       <c r="C6" s="2">
-        <v>9.1430335875712697E-5</v>
+        <v>9.1393701932141003E-5</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -475,10 +475,10 @@
         <v>7.7755102040816304</v>
       </c>
       <c r="B7" s="2">
-        <v>2.5398613620470099E-5</v>
+        <v>2.53884370049158E-5</v>
       </c>
       <c r="C7" s="2">
-        <v>9.1430335875712697E-5</v>
+        <v>9.1393701932141003E-5</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -486,10 +486,10 @@
         <v>9.33061224489796</v>
       </c>
       <c r="B8" s="2">
-        <v>2.5398613620470099E-5</v>
+        <v>2.53884370049158E-5</v>
       </c>
       <c r="C8" s="2">
-        <v>9.1430335875712697E-5</v>
+        <v>9.1393701932141003E-5</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -497,10 +497,10 @@
         <v>10.8857142857143</v>
       </c>
       <c r="B9" s="2">
-        <v>2.5398613620470099E-5</v>
+        <v>2.53884370049158E-5</v>
       </c>
       <c r="C9" s="2">
-        <v>9.1430335875712697E-5</v>
+        <v>9.1393701932141003E-5</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -508,10 +508,10 @@
         <v>12.4408163265306</v>
       </c>
       <c r="B10" s="2">
-        <v>2.5398613620470099E-5</v>
+        <v>2.53884370049158E-5</v>
       </c>
       <c r="C10" s="2">
-        <v>9.1430335875712697E-5</v>
+        <v>9.1393701932141003E-5</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -519,10 +519,10 @@
         <v>13.995918367346899</v>
       </c>
       <c r="B11" s="2">
-        <v>2.5398613620470099E-5</v>
+        <v>2.53884370049158E-5</v>
       </c>
       <c r="C11" s="2">
-        <v>9.1430335875712697E-5</v>
+        <v>9.1393701932141003E-5</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -530,10 +530,10 @@
         <v>15.5510204081633</v>
       </c>
       <c r="B12" s="2">
-        <v>2.5398613620470099E-5</v>
+        <v>2.5388437004915698E-5</v>
       </c>
       <c r="C12" s="2">
-        <v>9.1430335875712697E-5</v>
+        <v>9.1393701932141003E-5</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -541,10 +541,10 @@
         <v>17.106122448979601</v>
       </c>
       <c r="B13" s="2">
-        <v>2.5398613620470099E-5</v>
+        <v>2.5388437004915698E-5</v>
       </c>
       <c r="C13" s="2">
-        <v>9.1430335875712697E-5</v>
+        <v>9.1393701932141098E-5</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -552,10 +552,10 @@
         <v>18.661224489795899</v>
       </c>
       <c r="B14" s="2">
-        <v>2.5398613620470099E-5</v>
+        <v>2.5388437004915698E-5</v>
       </c>
       <c r="C14" s="2">
-        <v>9.1430335875712805E-5</v>
+        <v>9.1393701932141098E-5</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -563,10 +563,10 @@
         <v>20.2163265306122</v>
       </c>
       <c r="B15" s="2">
-        <v>2.5398613620470001E-5</v>
+        <v>2.5388437004915698E-5</v>
       </c>
       <c r="C15" s="2">
-        <v>9.1430335875712805E-5</v>
+        <v>9.1393701932141098E-5</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -574,10 +574,10 @@
         <v>21.771428571428601</v>
       </c>
       <c r="B16" s="2">
-        <v>2.5398613620470001E-5</v>
+        <v>2.53884370049156E-5</v>
       </c>
       <c r="C16" s="2">
-        <v>9.14303358757129E-5</v>
+        <v>9.1393701932141098E-5</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -585,10 +585,10 @@
         <v>23.326530612244898</v>
       </c>
       <c r="B17" s="2">
-        <v>2.5398613620470001E-5</v>
+        <v>2.5388437004916E-5</v>
       </c>
       <c r="C17" s="2">
-        <v>9.1430335875712805E-5</v>
+        <v>9.13937019321408E-5</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -596,10 +596,10 @@
         <v>24.8816326530612</v>
       </c>
       <c r="B18" s="2">
-        <v>2.5398613620471299E-5</v>
+        <v>2.53884370049185E-5</v>
       </c>
       <c r="C18" s="2">
-        <v>9.1430335875711599E-5</v>
+        <v>9.1393701932138306E-5</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -607,10 +607,10 @@
         <v>26.4367346938776</v>
       </c>
       <c r="B19" s="2">
-        <v>2.53986136204584E-5</v>
+        <v>2.5388437004909501E-5</v>
       </c>
       <c r="C19" s="2">
-        <v>9.1430335875724406E-5</v>
+        <v>9.1393701932147197E-5</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -618,10 +618,10 @@
         <v>27.991836734693901</v>
       </c>
       <c r="B20" s="2">
-        <v>2.5398613620507901E-5</v>
+        <v>2.5388437004576099E-5</v>
       </c>
       <c r="C20" s="2">
-        <v>9.1430335875674994E-5</v>
+        <v>9.1393701932480603E-5</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -629,10 +629,10 @@
         <v>29.546938775510199</v>
       </c>
       <c r="B21" s="2">
-        <v>2.5398613639724801E-5</v>
+        <v>2.5388437055285E-5</v>
       </c>
       <c r="C21" s="2">
-        <v>9.1430335856457998E-5</v>
+        <v>9.1393701881771803E-5</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -640,10 +640,10 @@
         <v>31.1020408163265</v>
       </c>
       <c r="B22" s="2">
-        <v>2.5398613705034901E-5</v>
+        <v>2.53884374791192E-5</v>
       </c>
       <c r="C22" s="2">
-        <v>9.1430335791147896E-5</v>
+        <v>9.1393701457937604E-5</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -651,10 +651,10 @@
         <v>32.657142857142901</v>
       </c>
       <c r="B23" s="2">
-        <v>2.5398613365473598E-5</v>
+        <v>2.53884379537064E-5</v>
       </c>
       <c r="C23" s="2">
-        <v>9.1430336130709201E-5</v>
+        <v>9.1393700983350302E-5</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -662,10 +662,10 @@
         <v>34.212244897959202</v>
       </c>
       <c r="B24" s="2">
-        <v>2.5398611214323101E-5</v>
+        <v>2.53884332453677E-5</v>
       </c>
       <c r="C24" s="2">
-        <v>9.1430338281859702E-5</v>
+        <v>9.1393705691689096E-5</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -673,10 +673,10 @@
         <v>35.767346938775503</v>
       </c>
       <c r="B25" s="2">
-        <v>2.5398608087690902E-5</v>
+        <v>2.5388413863833901E-5</v>
       </c>
       <c r="C25" s="2">
-        <v>9.1430341408491996E-5</v>
+        <v>9.1393725073222895E-5</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -684,10 +684,10 @@
         <v>37.322448979591798</v>
       </c>
       <c r="B26" s="2">
-        <v>2.5398614041311599E-5</v>
+        <v>2.53883898435345E-5</v>
       </c>
       <c r="C26" s="2">
-        <v>9.1430335454871302E-5</v>
+        <v>9.1393749093522303E-5</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
@@ -695,10 +695,10 @@
         <v>38.877551020408198</v>
       </c>
       <c r="B27" s="2">
-        <v>2.5398644631045199E-5</v>
+        <v>2.5388420079746099E-5</v>
       </c>
       <c r="C27" s="2">
-        <v>9.1430304865137594E-5</v>
+        <v>9.1393718857310697E-5</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
@@ -706,10 +706,10 @@
         <v>40.432653061224499</v>
       </c>
       <c r="B28" s="2">
-        <v>2.5398694227014101E-5</v>
+        <v>2.5388575781616899E-5</v>
       </c>
       <c r="C28" s="2">
-        <v>9.1430255269168702E-5</v>
+        <v>9.13935631554398E-5</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
@@ -717,10 +717,10 @@
         <v>41.987755102040801</v>
       </c>
       <c r="B29" s="2">
-        <v>2.5398713517837601E-5</v>
+        <v>2.5388821417302902E-5</v>
       </c>
       <c r="C29" s="2">
-        <v>9.14302359783453E-5</v>
+        <v>9.1393317519753895E-5</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
@@ -728,10 +728,10 @@
         <v>43.542857142857102</v>
       </c>
       <c r="B30" s="2">
-        <v>2.5398642147513501E-5</v>
+        <v>2.5388952006479699E-5</v>
       </c>
       <c r="C30" s="2">
-        <v>9.1430307348669393E-5</v>
+        <v>9.1393186930577094E-5</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
@@ -739,10 +739,10 @@
         <v>45.097959183673503</v>
       </c>
       <c r="B31" s="2">
-        <v>2.53984903056016E-5</v>
+        <v>2.5388739384618599E-5</v>
       </c>
       <c r="C31" s="2">
-        <v>9.14304591905812E-5</v>
+        <v>9.1393399552438197E-5</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
@@ -750,10 +750,10 @@
         <v>46.653061224489797</v>
       </c>
       <c r="B32" s="2">
-        <v>2.5398379000484601E-5</v>
+        <v>2.5388199650119501E-5</v>
       </c>
       <c r="C32" s="2">
-        <v>9.1430570495698205E-5</v>
+        <v>9.1393939286937303E-5</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
@@ -761,10 +761,10 @@
         <v>48.208163265306098</v>
       </c>
       <c r="B33" s="2">
-        <v>2.5398470489353599E-5</v>
+        <v>2.5387691303543099E-5</v>
       </c>
       <c r="C33" s="2">
-        <v>9.1430479006829302E-5</v>
+        <v>9.1394447633513697E-5</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
@@ -772,10 +772,10 @@
         <v>49.763265306122499</v>
       </c>
       <c r="B34" s="2">
-        <v>2.5398858461923001E-5</v>
+        <v>2.5387708651197899E-5</v>
       </c>
       <c r="C34" s="2">
-        <v>9.1430091034259894E-5</v>
+        <v>9.1394430285858904E-5</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
@@ -783,10 +783,10 @@
         <v>51.3183673469388</v>
       </c>
       <c r="B35" s="2">
-        <v>2.5399576476059199E-5</v>
+        <v>2.5388602090405698E-5</v>
       </c>
       <c r="C35" s="2">
-        <v>9.1429373020123601E-5</v>
+        <v>9.1393536846651102E-5</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
@@ -794,10 +794,10 @@
         <v>52.873469387755101</v>
       </c>
       <c r="B36" s="2">
-        <v>2.5400808487126901E-5</v>
+        <v>2.53906070634887E-5</v>
       </c>
       <c r="C36" s="2">
-        <v>9.1428141009056E-5</v>
+        <v>9.1391531873568103E-5</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
@@ -805,10 +805,10 @@
         <v>54.428571428571402</v>
       </c>
       <c r="B37" s="2">
-        <v>2.5403287880807701E-5</v>
+        <v>2.5394386647539101E-5</v>
       </c>
       <c r="C37" s="2">
-        <v>9.1425661615375102E-5</v>
+        <v>9.1387752289517801E-5</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
@@ -816,10 +816,10 @@
         <v>55.983673469387803</v>
       </c>
       <c r="B38" s="2">
-        <v>2.5408985669013601E-5</v>
+        <v>2.5402153407879798E-5</v>
       </c>
       <c r="C38" s="2">
-        <v>9.1419963827169294E-5</v>
+        <v>9.1379985529177005E-5</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
@@ -827,10 +827,10 @@
         <v>57.538775510204097</v>
       </c>
       <c r="B39" s="2">
-        <v>2.5422557256840802E-5</v>
+        <v>2.54197140454217E-5</v>
       </c>
       <c r="C39" s="2">
-        <v>9.1406392239342201E-5</v>
+        <v>9.1362424891635097E-5</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
@@ -838,10 +838,10 @@
         <v>59.093877551020398</v>
       </c>
       <c r="B40" s="2">
-        <v>2.5454600241082201E-5</v>
+        <v>2.5460595430973201E-5</v>
       </c>
       <c r="C40" s="2">
-        <v>9.1374349255100897E-5</v>
+        <v>9.1321543506083403E-5</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
@@ -849,10 +849,10 @@
         <v>60.648979591836699</v>
       </c>
       <c r="B41" s="2">
-        <v>2.5528858198359901E-5</v>
+        <v>2.5554967530604001E-5</v>
       </c>
       <c r="C41" s="2">
-        <v>9.1300091297823194E-5</v>
+        <v>9.1227171406452196E-5</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
@@ -860,10 +860,10 @@
         <v>62.2040816326531</v>
       </c>
       <c r="B42" s="2">
-        <v>2.5697836241358401E-5</v>
+        <v>2.5769051870487699E-5</v>
       </c>
       <c r="C42" s="2">
-        <v>9.1131113254824293E-5</v>
+        <v>9.1013087066568098E-5</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
@@ -871,10 +871,10 @@
         <v>63.759183673469401</v>
       </c>
       <c r="B43" s="2">
-        <v>2.60761177360675E-5</v>
+        <v>2.6246585713545701E-5</v>
       </c>
       <c r="C43" s="2">
-        <v>9.0752831760115794E-5</v>
+        <v>9.0535553223508304E-5</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
@@ -882,10 +882,10 @@
         <v>65.314285714285703</v>
       </c>
       <c r="B44" s="2">
-        <v>2.69094367332096E-5</v>
+        <v>2.7293760365313699E-5</v>
       </c>
       <c r="C44" s="2">
-        <v>8.9919512762976506E-5</v>
+        <v>8.9488378571739205E-5</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
@@ -893,10 +893,10 @@
         <v>66.869387755101997</v>
       </c>
       <c r="B45" s="2">
-        <v>2.87056552290428E-5</v>
+        <v>2.9532756187728999E-5</v>
       </c>
       <c r="C45" s="2">
-        <v>8.8123294267143797E-5</v>
+        <v>8.7249382749324196E-5</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
@@ -904,10 +904,10 @@
         <v>68.424489795918404</v>
       </c>
       <c r="B46" s="2">
-        <v>3.2424064203003597E-5</v>
+        <v>3.4089211042210202E-5</v>
       </c>
       <c r="C46" s="2">
-        <v>8.4404885293172497E-5</v>
+        <v>8.2692927894839402E-5</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
@@ -915,10 +915,10 @@
         <v>69.979591836734699</v>
       </c>
       <c r="B47" s="2">
-        <v>3.9531809046269301E-5</v>
+        <v>4.25113658380336E-5</v>
       </c>
       <c r="C47" s="2">
-        <v>7.7297140449895301E-5</v>
+        <v>7.4270773099002803E-5</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
@@ -926,10 +926,10 @@
         <v>71.534693877551007</v>
       </c>
       <c r="B48" s="2">
-        <v>5.1320525997488699E-5</v>
+        <v>5.5725923915145703E-5</v>
       </c>
       <c r="C48" s="2">
-        <v>6.5508423498672407E-5</v>
+        <v>6.1056215021891696E-5</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
@@ -937,10 +937,10 @@
         <v>73.089795918367301</v>
       </c>
       <c r="B49" s="2">
-        <v>6.7134044484895407E-5</v>
+        <v>7.2188557993060104E-5</v>
       </c>
       <c r="C49" s="2">
-        <v>4.9694905011284801E-5</v>
+        <v>4.4593580944033498E-5</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
@@ -948,10 +948,10 @@
         <v>74.644897959183695</v>
       </c>
       <c r="B50" s="2">
-        <v>8.3546553144955705E-5</v>
+        <v>8.79897009383496E-5</v>
       </c>
       <c r="C50" s="2">
-        <v>3.3282396351280698E-5</v>
+        <v>2.8792437998865101E-5</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
@@ -959,10 +959,10 @@
         <v>76.2</v>
       </c>
       <c r="B51" s="2">
-        <v>9.6834732988954595E-5</v>
+        <v>9.9960492563463106E-5</v>
       </c>
       <c r="C51" s="2">
-        <v>1.9994216507305301E-5</v>
+        <v>1.6821646373915899E-5</v>
       </c>
     </row>
   </sheetData>

--- a/4_example/case_study_1.0/4_additional_plots/nc50.xlsx
+++ b/4_example/case_study_1.0/4_additional_plots/nc50.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tkim333\Documents\GitHub\toPSAil\4_example\case_study_1.0\4_additional_plots\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8242FB1-ACBD-4795-8D76-86CCA7C88DB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46160EA6-988B-4672-8813-B87EE2B99D5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{49F71D96-3F81-0D40-866E-1B6184E8AFED}"/>
   </bookViews>
@@ -49,7 +49,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -57,13 +57,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -80,8 +93,8 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -398,20 +411,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9046078-3D4C-E14A-AEFF-0D6AD9817354}">
   <dimension ref="A1:C51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C51"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
     </row>
@@ -419,550 +432,550 @@
       <c r="A2">
         <v>0</v>
       </c>
-      <c r="B2" s="2">
-        <v>2.53884370049158E-5</v>
-      </c>
-      <c r="C2" s="2">
-        <v>9.1393701932141003E-5</v>
+      <c r="B2" s="1">
+        <v>2.5388727983825299E-5</v>
+      </c>
+      <c r="C2" s="1">
+        <v>9.1394749402674301E-5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1.5551020408163301</v>
       </c>
-      <c r="B3" s="2">
-        <v>2.53884370049158E-5</v>
-      </c>
-      <c r="C3" s="2">
-        <v>9.1393701932141003E-5</v>
+      <c r="B3" s="1">
+        <v>2.5388727983825299E-5</v>
+      </c>
+      <c r="C3" s="1">
+        <v>9.1394749402674301E-5</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3.1102040816326499</v>
       </c>
-      <c r="B4" s="2">
-        <v>2.53884370049158E-5</v>
-      </c>
-      <c r="C4" s="2">
-        <v>9.1393701932141003E-5</v>
+      <c r="B4" s="1">
+        <v>2.5388727983825299E-5</v>
+      </c>
+      <c r="C4" s="1">
+        <v>9.1394749402674301E-5</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4.66530612244898</v>
       </c>
-      <c r="B5" s="2">
-        <v>2.53884370049158E-5</v>
-      </c>
-      <c r="C5" s="2">
-        <v>9.1393701932141003E-5</v>
+      <c r="B5" s="1">
+        <v>2.5388727983825299E-5</v>
+      </c>
+      <c r="C5" s="1">
+        <v>9.1394749402674301E-5</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>6.2204081632653097</v>
       </c>
-      <c r="B6" s="2">
-        <v>2.53884370049158E-5</v>
-      </c>
-      <c r="C6" s="2">
-        <v>9.1393701932141003E-5</v>
+      <c r="B6" s="1">
+        <v>2.5388727983825299E-5</v>
+      </c>
+      <c r="C6" s="1">
+        <v>9.1394749402674301E-5</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>7.7755102040816304</v>
       </c>
-      <c r="B7" s="2">
-        <v>2.53884370049158E-5</v>
-      </c>
-      <c r="C7" s="2">
-        <v>9.1393701932141003E-5</v>
+      <c r="B7" s="1">
+        <v>2.5388727983825299E-5</v>
+      </c>
+      <c r="C7" s="1">
+        <v>9.1394749402674301E-5</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>9.33061224489796</v>
       </c>
-      <c r="B8" s="2">
-        <v>2.53884370049158E-5</v>
-      </c>
-      <c r="C8" s="2">
-        <v>9.1393701932141003E-5</v>
+      <c r="B8" s="1">
+        <v>2.5388727983825299E-5</v>
+      </c>
+      <c r="C8" s="1">
+        <v>9.1394749402674301E-5</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>10.8857142857143</v>
       </c>
-      <c r="B9" s="2">
-        <v>2.53884370049158E-5</v>
-      </c>
-      <c r="C9" s="2">
-        <v>9.1393701932141003E-5</v>
+      <c r="B9" s="1">
+        <v>2.5388727983825299E-5</v>
+      </c>
+      <c r="C9" s="1">
+        <v>9.1394749402674301E-5</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>12.4408163265306</v>
       </c>
-      <c r="B10" s="2">
-        <v>2.53884370049158E-5</v>
-      </c>
-      <c r="C10" s="2">
-        <v>9.1393701932141003E-5</v>
+      <c r="B10" s="1">
+        <v>2.5388727983825299E-5</v>
+      </c>
+      <c r="C10" s="1">
+        <v>9.1394749402674301E-5</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>13.995918367346899</v>
       </c>
-      <c r="B11" s="2">
-        <v>2.53884370049158E-5</v>
-      </c>
-      <c r="C11" s="2">
-        <v>9.1393701932141003E-5</v>
+      <c r="B11" s="1">
+        <v>2.5388727983825299E-5</v>
+      </c>
+      <c r="C11" s="1">
+        <v>9.1394749402674301E-5</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>15.5510204081633</v>
       </c>
-      <c r="B12" s="2">
-        <v>2.5388437004915698E-5</v>
-      </c>
-      <c r="C12" s="2">
-        <v>9.1393701932141003E-5</v>
+      <c r="B12" s="1">
+        <v>2.5388727983825299E-5</v>
+      </c>
+      <c r="C12" s="1">
+        <v>9.1394749402674301E-5</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>17.106122448979601</v>
       </c>
-      <c r="B13" s="2">
-        <v>2.5388437004915698E-5</v>
-      </c>
-      <c r="C13" s="2">
-        <v>9.1393701932141098E-5</v>
+      <c r="B13" s="1">
+        <v>2.5388727983825299E-5</v>
+      </c>
+      <c r="C13" s="1">
+        <v>9.1394749402674301E-5</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>18.661224489795899</v>
       </c>
-      <c r="B14" s="2">
-        <v>2.5388437004915698E-5</v>
-      </c>
-      <c r="C14" s="2">
-        <v>9.1393701932141098E-5</v>
+      <c r="B14" s="1">
+        <v>2.5388727983825299E-5</v>
+      </c>
+      <c r="C14" s="1">
+        <v>9.1394749402674301E-5</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>20.2163265306122</v>
       </c>
-      <c r="B15" s="2">
-        <v>2.5388437004915698E-5</v>
-      </c>
-      <c r="C15" s="2">
-        <v>9.1393701932141098E-5</v>
+      <c r="B15" s="1">
+        <v>2.5388727983825299E-5</v>
+      </c>
+      <c r="C15" s="1">
+        <v>9.1394749402674301E-5</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>21.771428571428601</v>
       </c>
-      <c r="B16" s="2">
-        <v>2.53884370049156E-5</v>
-      </c>
-      <c r="C16" s="2">
-        <v>9.1393701932141098E-5</v>
+      <c r="B16" s="1">
+        <v>2.5388727983825299E-5</v>
+      </c>
+      <c r="C16" s="1">
+        <v>9.1394749402674206E-5</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>23.326530612244898</v>
       </c>
-      <c r="B17" s="2">
-        <v>2.5388437004916E-5</v>
-      </c>
-      <c r="C17" s="2">
-        <v>9.13937019321408E-5</v>
+      <c r="B17" s="1">
+        <v>2.5388727983825899E-5</v>
+      </c>
+      <c r="C17" s="1">
+        <v>9.1394749402673597E-5</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>24.8816326530612</v>
       </c>
-      <c r="B18" s="2">
-        <v>2.53884370049185E-5</v>
-      </c>
-      <c r="C18" s="2">
-        <v>9.1393701932138306E-5</v>
+      <c r="B18" s="1">
+        <v>2.5388727983829101E-5</v>
+      </c>
+      <c r="C18" s="1">
+        <v>9.1394749402670507E-5</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>26.4367346938776</v>
       </c>
-      <c r="B19" s="2">
-        <v>2.5388437004909501E-5</v>
-      </c>
-      <c r="C19" s="2">
-        <v>9.1393701932147197E-5</v>
+      <c r="B19" s="1">
+        <v>2.5388727983846001E-5</v>
+      </c>
+      <c r="C19" s="1">
+        <v>9.1394749402653607E-5</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>27.991836734693901</v>
       </c>
-      <c r="B20" s="2">
-        <v>2.5388437004576099E-5</v>
-      </c>
-      <c r="C20" s="2">
-        <v>9.1393701932480603E-5</v>
+      <c r="B20" s="1">
+        <v>2.5388727985173E-5</v>
+      </c>
+      <c r="C20" s="1">
+        <v>9.1394749401326502E-5</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>29.546938775510199</v>
       </c>
-      <c r="B21" s="2">
-        <v>2.5388437055285E-5</v>
-      </c>
-      <c r="C21" s="2">
-        <v>9.1393701881771803E-5</v>
+      <c r="B21" s="1">
+        <v>2.5388727975471301E-5</v>
+      </c>
+      <c r="C21" s="1">
+        <v>9.1394749411028201E-5</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>31.1020408163265</v>
       </c>
-      <c r="B22" s="2">
-        <v>2.53884374791192E-5</v>
-      </c>
-      <c r="C22" s="2">
-        <v>9.1393701457937604E-5</v>
+      <c r="B22" s="1">
+        <v>2.5388727680042801E-5</v>
+      </c>
+      <c r="C22" s="1">
+        <v>9.1394749706456705E-5</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>32.657142857142901</v>
       </c>
-      <c r="B23" s="2">
-        <v>2.53884379537064E-5</v>
-      </c>
-      <c r="C23" s="2">
-        <v>9.1393700983350302E-5</v>
+      <c r="B23" s="1">
+        <v>2.5388726201003399E-5</v>
+      </c>
+      <c r="C23" s="1">
+        <v>9.1394751185496103E-5</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>34.212244897959202</v>
       </c>
-      <c r="B24" s="2">
-        <v>2.53884332453677E-5</v>
-      </c>
-      <c r="C24" s="2">
-        <v>9.1393705691689096E-5</v>
+      <c r="B24" s="1">
+        <v>2.5388724122942301E-5</v>
+      </c>
+      <c r="C24" s="1">
+        <v>9.1394753263557296E-5</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>35.767346938775503</v>
       </c>
-      <c r="B25" s="2">
-        <v>2.5388413863833901E-5</v>
-      </c>
-      <c r="C25" s="2">
-        <v>9.1393725073222895E-5</v>
+      <c r="B25" s="1">
+        <v>2.53887293160036E-5</v>
+      </c>
+      <c r="C25" s="1">
+        <v>9.1394748070495902E-5</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>37.322448979591798</v>
       </c>
-      <c r="B26" s="2">
-        <v>2.53883898435345E-5</v>
-      </c>
-      <c r="C26" s="2">
-        <v>9.1393749093522303E-5</v>
+      <c r="B26" s="1">
+        <v>2.5388754223284201E-5</v>
+      </c>
+      <c r="C26" s="1">
+        <v>9.1394723163215304E-5</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>38.877551020408198</v>
       </c>
-      <c r="B27" s="2">
-        <v>2.5388420079746099E-5</v>
-      </c>
-      <c r="C27" s="2">
-        <v>9.1393718857310697E-5</v>
+      <c r="B27" s="1">
+        <v>2.53887897002316E-5</v>
+      </c>
+      <c r="C27" s="1">
+        <v>9.1394687686267902E-5</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>40.432653061224499</v>
       </c>
-      <c r="B28" s="2">
-        <v>2.5388575781616899E-5</v>
-      </c>
-      <c r="C28" s="2">
-        <v>9.13935631554398E-5</v>
+      <c r="B28" s="1">
+        <v>2.5388780992873202E-5</v>
+      </c>
+      <c r="C28" s="1">
+        <v>9.1394696393626304E-5</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>41.987755102040801</v>
       </c>
-      <c r="B29" s="2">
-        <v>2.5388821417302902E-5</v>
-      </c>
-      <c r="C29" s="2">
-        <v>9.1393317519753895E-5</v>
+      <c r="B29" s="1">
+        <v>2.53886659907442E-5</v>
+      </c>
+      <c r="C29" s="1">
+        <v>9.1394811395755299E-5</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>43.542857142857102</v>
       </c>
-      <c r="B30" s="2">
-        <v>2.5388952006479699E-5</v>
-      </c>
-      <c r="C30" s="2">
-        <v>9.1393186930577094E-5</v>
+      <c r="B30" s="1">
+        <v>2.53884718750006E-5</v>
+      </c>
+      <c r="C30" s="1">
+        <v>9.1395005511499001E-5</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>45.097959183673503</v>
       </c>
-      <c r="B31" s="2">
-        <v>2.5388739384618599E-5</v>
-      </c>
-      <c r="C31" s="2">
-        <v>9.1393399552438197E-5</v>
+      <c r="B31" s="1">
+        <v>2.5388355372302899E-5</v>
+      </c>
+      <c r="C31" s="1">
+        <v>9.1395122014196694E-5</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>46.653061224489797</v>
       </c>
-      <c r="B32" s="2">
-        <v>2.5388199650119501E-5</v>
-      </c>
-      <c r="C32" s="2">
-        <v>9.1393939286937303E-5</v>
+      <c r="B32" s="1">
+        <v>2.5388495779807898E-5</v>
+      </c>
+      <c r="C32" s="1">
+        <v>9.13949816066916E-5</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>48.208163265306098</v>
       </c>
-      <c r="B33" s="2">
-        <v>2.5387691303543099E-5</v>
-      </c>
-      <c r="C33" s="2">
-        <v>9.1394447633513697E-5</v>
+      <c r="B33" s="1">
+        <v>2.5388931333216902E-5</v>
+      </c>
+      <c r="C33" s="1">
+        <v>9.13945460532826E-5</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>49.763265306122499</v>
       </c>
-      <c r="B34" s="2">
-        <v>2.5387708651197899E-5</v>
-      </c>
-      <c r="C34" s="2">
-        <v>9.1394430285858904E-5</v>
+      <c r="B34" s="1">
+        <v>2.5389542188134E-5</v>
+      </c>
+      <c r="C34" s="1">
+        <v>9.1393935198365496E-5</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>51.3183673469388</v>
       </c>
-      <c r="B35" s="2">
-        <v>2.5388602090405698E-5</v>
-      </c>
-      <c r="C35" s="2">
-        <v>9.1393536846651102E-5</v>
+      <c r="B35" s="1">
+        <v>2.5390269210284499E-5</v>
+      </c>
+      <c r="C35" s="1">
+        <v>9.1393208176215006E-5</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>52.873469387755101</v>
       </c>
-      <c r="B36" s="2">
-        <v>2.53906070634887E-5</v>
-      </c>
-      <c r="C36" s="2">
-        <v>9.1391531873568103E-5</v>
+      <c r="B36" s="1">
+        <v>2.53914728434945E-5</v>
+      </c>
+      <c r="C36" s="1">
+        <v>9.13920045430051E-5</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>54.428571428571402</v>
       </c>
-      <c r="B37" s="2">
-        <v>2.5394386647539101E-5</v>
-      </c>
-      <c r="C37" s="2">
-        <v>9.1387752289517801E-5</v>
+      <c r="B37" s="1">
+        <v>2.5394356067213001E-5</v>
+      </c>
+      <c r="C37" s="1">
+        <v>9.1389121319286596E-5</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>55.983673469387803</v>
       </c>
-      <c r="B38" s="2">
-        <v>2.5402153407879798E-5</v>
-      </c>
-      <c r="C38" s="2">
-        <v>9.1379985529177005E-5</v>
+      <c r="B38" s="1">
+        <v>2.5401676446986498E-5</v>
+      </c>
+      <c r="C38" s="1">
+        <v>9.1381800939512899E-5</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>57.538775510204097</v>
       </c>
-      <c r="B39" s="2">
-        <v>2.54197140454217E-5</v>
-      </c>
-      <c r="C39" s="2">
-        <v>9.1362424891635097E-5</v>
+      <c r="B39" s="1">
+        <v>2.54194517993954E-5</v>
+      </c>
+      <c r="C39" s="1">
+        <v>9.1364025587103604E-5</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>59.093877551020398</v>
       </c>
-      <c r="B40" s="2">
-        <v>2.5460595430973201E-5</v>
-      </c>
-      <c r="C40" s="2">
-        <v>9.1321543506083403E-5</v>
+      <c r="B40" s="1">
+        <v>2.5461057484419899E-5</v>
+      </c>
+      <c r="C40" s="1">
+        <v>9.1322419902078905E-5</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>60.648979591836699</v>
       </c>
-      <c r="B41" s="2">
-        <v>2.5554967530604001E-5</v>
-      </c>
-      <c r="C41" s="2">
-        <v>9.1227171406452196E-5</v>
+      <c r="B41" s="1">
+        <v>2.5556418930679E-5</v>
+      </c>
+      <c r="C41" s="1">
+        <v>9.1227058455819598E-5</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>62.2040816326531</v>
       </c>
-      <c r="B42" s="2">
-        <v>2.5769051870487699E-5</v>
-      </c>
-      <c r="C42" s="2">
-        <v>9.1013087066568098E-5</v>
+      <c r="B42" s="1">
+        <v>2.57718226137498E-5</v>
+      </c>
+      <c r="C42" s="1">
+        <v>9.1011654772748905E-5</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>63.759183673469401</v>
       </c>
-      <c r="B43" s="2">
-        <v>2.6246585713545701E-5</v>
-      </c>
-      <c r="C43" s="2">
-        <v>9.0535553223508304E-5</v>
+      <c r="B43" s="1">
+        <v>2.6251871482448001E-5</v>
+      </c>
+      <c r="C43" s="1">
+        <v>9.0531605904051803E-5</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>65.314285714285703</v>
       </c>
-      <c r="B44" s="2">
-        <v>2.7293760365313699E-5</v>
-      </c>
-      <c r="C44" s="2">
-        <v>8.9488378571739205E-5</v>
+      <c r="B44" s="1">
+        <v>2.7305088793103499E-5</v>
+      </c>
+      <c r="C44" s="1">
+        <v>8.9478388593397504E-5</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>66.869387755101997</v>
       </c>
-      <c r="B45" s="2">
-        <v>2.9532756187728999E-5</v>
-      </c>
-      <c r="C45" s="2">
-        <v>8.7249382749324196E-5</v>
+      <c r="B45" s="1">
+        <v>2.95579869317403E-5</v>
+      </c>
+      <c r="C45" s="1">
+        <v>8.7225490454758301E-5</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>68.424489795918404</v>
       </c>
-      <c r="B46" s="2">
-        <v>3.4089211042210202E-5</v>
-      </c>
-      <c r="C46" s="2">
-        <v>8.2692927894839402E-5</v>
+      <c r="B46" s="1">
+        <v>3.4141576505229301E-5</v>
+      </c>
+      <c r="C46" s="1">
+        <v>8.26419008812615E-5</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>69.979591836734699</v>
       </c>
-      <c r="B47" s="2">
-        <v>4.25113658380336E-5</v>
-      </c>
-      <c r="C47" s="2">
-        <v>7.4270773099002803E-5</v>
+      <c r="B47" s="1">
+        <v>4.2605122341967099E-5</v>
+      </c>
+      <c r="C47" s="1">
+        <v>7.4178355044513897E-5</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>71.534693877551007</v>
       </c>
-      <c r="B48" s="2">
-        <v>5.5725923915145703E-5</v>
-      </c>
-      <c r="C48" s="2">
-        <v>6.1056215021891696E-5</v>
+      <c r="B48" s="1">
+        <v>5.5861615565102803E-5</v>
+      </c>
+      <c r="C48" s="1">
+        <v>6.0921861821379E-5</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>73.089795918367301</v>
       </c>
-      <c r="B49" s="2">
-        <v>7.2188557993060104E-5</v>
-      </c>
-      <c r="C49" s="2">
-        <v>4.4593580944033498E-5</v>
+      <c r="B49" s="1">
+        <v>7.2340183228527594E-5</v>
+      </c>
+      <c r="C49" s="1">
+        <v>4.4443294157981903E-5</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>74.644897959183695</v>
       </c>
-      <c r="B50" s="2">
-        <v>8.79897009383496E-5</v>
-      </c>
-      <c r="C50" s="2">
-        <v>2.8792437998865101E-5</v>
+      <c r="B50" s="1">
+        <v>8.8121547130049104E-5</v>
+      </c>
+      <c r="C50" s="1">
+        <v>2.8661930256494702E-5</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>76.2</v>
       </c>
-      <c r="B51" s="2">
-        <v>9.9960492563463106E-5</v>
-      </c>
-      <c r="C51" s="2">
-        <v>1.6821646373915899E-5</v>
+      <c r="B51" s="1">
+        <v>1.00055790107514E-4</v>
+      </c>
+      <c r="C51" s="1">
+        <v>1.6727687279025599E-5</v>
       </c>
     </row>
   </sheetData>

--- a/4_example/case_study_1.0/4_additional_plots/nc50.xlsx
+++ b/4_example/case_study_1.0/4_additional_plots/nc50.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tkim333\Documents\GitHub\toPSAil\4_example\case_study_1.0\4_additional_plots\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46160EA6-988B-4672-8813-B87EE2B99D5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6CA585E-AB93-4DBD-9909-210E3768103F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{49F71D96-3F81-0D40-866E-1B6184E8AFED}"/>
   </bookViews>
@@ -411,8 +411,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9046078-3D4C-E14A-AEFF-0D6AD9817354}">
   <dimension ref="A1:C51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C51"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
